--- a/Centralities/Centralities-Barcelona1.xlsx
+++ b/Centralities/Centralities-Barcelona1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="207">
   <si>
     <t>Degree</t>
   </si>
@@ -634,6 +634,9 @@
   </si>
   <si>
     <t xml:space="preserve">Station </t>
+  </si>
+  <si>
+    <t>MAX</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -660,7 +663,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,6 +673,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,7 +703,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -991,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1042,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <f xml:space="preserve"> B2/MAX(B2:B201)</f>
+        <f>B2/6</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="D2" s="3">
@@ -1056,10 +1069,10 @@
         <v>0.21213166666666666</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="H2" s="2">
-        <v>1.3462100000000001</v>
+        <v>1.3376059999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1070,7 +1083,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C66" si="0" xml:space="preserve"> B3/MAX(B3:B202)</f>
+        <f t="shared" ref="C3:C66" si="0">B3/6</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D3" s="3">
@@ -1084,10 +1097,10 @@
         <v>0.39100233333333334</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="H3" s="2">
-        <v>1.3376059999999999</v>
+        <v>1.1795433333333334</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1112,10 +1125,10 @@
         <v>0.40329433333333331</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2">
-        <v>1.2814869999999998</v>
+        <v>1.1723296666666667</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1140,10 +1153,10 @@
         <v>0.41569933333333331</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2">
-        <v>1.2765089999999999</v>
+        <v>1.1428913333333335</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1168,10 +1181,10 @@
         <v>0.42824933333333332</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2">
-        <v>1.251104</v>
+        <v>1.1366993333333333</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1196,10 +1209,10 @@
         <v>0.61111400000000005</v>
       </c>
       <c r="G7" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2">
-        <v>1.2435149999999999</v>
+        <v>1.0970236666666666</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1224,10 +1237,10 @@
         <v>0.4268433333333333</v>
       </c>
       <c r="G8" t="s">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2">
-        <v>1.2109350000000001</v>
+        <v>1.0851136666666665</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1252,10 +1265,10 @@
         <v>0.4381423333333333</v>
       </c>
       <c r="G9" t="s">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2">
-        <v>1.199813</v>
+        <v>1.0600943333333335</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1280,10 +1293,10 @@
         <v>0.44978733333333332</v>
       </c>
       <c r="G10" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2">
-        <v>1.1859519999999999</v>
+        <v>1.0594776666666665</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1308,10 +1321,10 @@
         <v>0.46184033333333335</v>
       </c>
       <c r="G11" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2">
-        <v>1.1805329999999998</v>
+        <v>1.0560406666666666</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1336,10 +1349,10 @@
         <v>0.47437533333333332</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2">
-        <v>1.1723296666666667</v>
+        <v>1.0178536666666667</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1364,10 +1377,10 @@
         <v>0.48764033333333334</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="H13" s="2">
-        <v>1.164655</v>
+        <v>0.94815366666666667</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1392,10 +1405,10 @@
         <v>0.50236733333333328</v>
       </c>
       <c r="G14" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="H14" s="2">
-        <v>1.1432389999999999</v>
+        <v>0.94317566666666663</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1420,10 +1433,10 @@
         <v>0.70449899999999999</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="H15" s="2">
-        <v>1.1428913333333335</v>
+        <v>0.91795066666666669</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1448,10 +1461,10 @@
         <v>0.43823533333333331</v>
       </c>
       <c r="G16" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="H16" s="2">
-        <v>1.141087</v>
+        <v>0.89508566666666656</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1476,10 +1489,10 @@
         <v>0.43935033333333334</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H17" s="2">
-        <v>1.1366993333333333</v>
+        <v>0.88512366666666664</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1504,10 +1517,10 @@
         <v>0.63205600000000006</v>
       </c>
       <c r="G18" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="H18" s="2">
-        <v>1.133966</v>
+        <v>0.86636166666666659</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1532,10 +1545,10 @@
         <v>0.43719233333333329</v>
       </c>
       <c r="G19" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="H19" s="2">
-        <v>1.1289180000000001</v>
+        <v>0.82808066666666658</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1560,10 +1573,10 @@
         <v>0.42084533333333329</v>
       </c>
       <c r="G20" t="s">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="H20" s="2">
-        <v>1.125753</v>
+        <v>0.80963966666666665</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1588,10 +1601,10 @@
         <v>0.23858566666666664</v>
       </c>
       <c r="G21" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="H21" s="2">
-        <v>1.1193520000000001</v>
+        <v>0.80439566666666662</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1616,10 +1629,10 @@
         <v>0.4265363333333333</v>
       </c>
       <c r="G22" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="H22" s="2">
-        <v>1.116506</v>
+        <v>0.75696933333333338</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1644,10 +1657,10 @@
         <v>0.43852033333333329</v>
       </c>
       <c r="G23" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="H23" s="2">
-        <v>1.1098809999999999</v>
+        <v>0.75308433333333324</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1672,10 +1685,10 @@
         <v>0.67241499999999998</v>
       </c>
       <c r="G24" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="H24" s="2">
-        <v>1.1039060000000001</v>
+        <v>0.70449899999999999</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1700,10 +1713,10 @@
         <v>0.4469083333333333</v>
       </c>
       <c r="G25" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="H25" s="2">
-        <v>1.1006390000000001</v>
+        <v>0.70153100000000002</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1728,10 +1741,10 @@
         <v>0.43354033333333331</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="H26" s="2">
-        <v>1.099631</v>
+        <v>0.69573799999999997</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1756,10 +1769,10 @@
         <v>0.42044533333333328</v>
       </c>
       <c r="G27" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="H27" s="2">
-        <v>1.098039</v>
+        <v>0.67984800000000001</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1784,10 +1797,10 @@
         <v>0.3948713333333333</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H28" s="2">
-        <v>1.0970236666666666</v>
+        <v>0.67241499999999998</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1812,10 +1825,10 @@
         <v>0.51375033333333331</v>
       </c>
       <c r="G29" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="H29" s="2">
-        <v>1.0916590000000002</v>
+        <v>0.664655</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1840,10 +1853,10 @@
         <v>0.52635933333333329</v>
       </c>
       <c r="G30" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="H30" s="2">
-        <v>1.089072</v>
+        <v>0.66378233333333325</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1868,10 +1881,10 @@
         <v>0.53956033333333331</v>
       </c>
       <c r="G31" t="s">
-        <v>184</v>
+        <v>86</v>
       </c>
       <c r="H31" s="2">
-        <v>1.086222</v>
+        <v>0.63390500000000005</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1896,10 +1909,10 @@
         <v>0.55347833333333329</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="H32" s="2">
-        <v>1.0851136666666665</v>
+        <v>0.63373599999999997</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1924,10 +1937,10 @@
         <v>0.5682773333333333</v>
       </c>
       <c r="G33" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="H33" s="2">
-        <v>1.0838899999999998</v>
+        <v>0.63205600000000006</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1952,10 +1965,10 @@
         <v>1.0594776666666665</v>
       </c>
       <c r="G34" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="H34" s="2">
-        <v>1.0770759999999999</v>
+        <v>0.62806699999999993</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1980,10 +1993,10 @@
         <v>0.66378233333333325</v>
       </c>
       <c r="G35" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="H35" s="2">
-        <v>1.0747229999999999</v>
+        <v>0.62260000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2008,10 +2021,10 @@
         <v>1.0970236666666666</v>
       </c>
       <c r="G36" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="H36" s="2">
-        <v>1.0742370000000001</v>
+        <v>0.61853899999999995</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2036,10 +2049,10 @@
         <v>1.0560406666666666</v>
       </c>
       <c r="G37" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="H37" s="2">
-        <v>1.0722179999999999</v>
+        <v>0.61354799999999998</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2064,10 +2077,10 @@
         <v>0.75308433333333324</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="H38" s="2">
-        <v>1.0600943333333335</v>
+        <v>0.61111400000000005</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2092,10 +2105,10 @@
         <v>0.75696933333333338</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="H39" s="2">
-        <v>1.0594776666666665</v>
+        <v>0.60775599999999996</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2120,10 +2133,10 @@
         <v>1.1723296666666667</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="H40" s="2">
-        <v>1.0560406666666666</v>
+        <v>0.60580900000000004</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2148,10 +2161,10 @@
         <v>0.53168633333333337</v>
       </c>
       <c r="G41" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="H41" s="2">
-        <v>1.0512840000000001</v>
+        <v>0.60117399999999999</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2176,10 +2189,10 @@
         <v>1.0851136666666665</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="H42" s="2">
-        <v>1.0178536666666667</v>
+        <v>0.59993933333333327</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2204,10 +2217,10 @@
         <v>1.0178536666666667</v>
       </c>
       <c r="G43" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H43" s="2">
-        <v>0.93772900000000003</v>
+        <v>0.59638333333333327</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2232,10 +2245,10 @@
         <v>0.56132033333333331</v>
       </c>
       <c r="G44" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H44" s="2">
-        <v>0.89508566666666656</v>
+        <v>0.58717800000000009</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2260,10 +2273,10 @@
         <v>0.55321433333333336</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="H45" s="2">
-        <v>0.88512366666666664</v>
+        <v>0.58443733333333325</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2288,10 +2301,10 @@
         <v>1.1366993333333333</v>
       </c>
       <c r="G46" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="H46" s="2">
-        <v>0.86636166666666659</v>
+        <v>0.5768483333333333</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2316,10 +2329,10 @@
         <v>0.48386833333333329</v>
       </c>
       <c r="G47" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="H47" s="2">
-        <v>0.85580900000000004</v>
+        <v>0.57536900000000002</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2344,10 +2357,10 @@
         <v>0.88512366666666664</v>
       </c>
       <c r="G48" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="H48" s="2">
-        <v>0.83994866666666668</v>
+        <v>0.5682773333333333</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2372,10 +2385,10 @@
         <v>0.44699333333333335</v>
       </c>
       <c r="G49" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="H49" s="2">
-        <v>0.82808066666666658</v>
+        <v>0.56132033333333331</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2400,10 +2413,10 @@
         <v>0.43161833333333333</v>
       </c>
       <c r="G50" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="H50" s="2">
-        <v>0.82437166666666661</v>
+        <v>0.55347833333333329</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2428,10 +2441,10 @@
         <v>0.41964233333333334</v>
       </c>
       <c r="G51" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H51" s="2">
-        <v>0.80963966666666665</v>
+        <v>0.55321433333333336</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2456,10 +2469,10 @@
         <v>0.41993933333333328</v>
       </c>
       <c r="G52" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="H52" s="2">
-        <v>0.8095026666666667</v>
+        <v>0.54426833333333335</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2484,10 +2497,10 @@
         <v>0.42492433333333335</v>
       </c>
       <c r="G53" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="H53" s="2">
-        <v>0.79519666666666666</v>
+        <v>0.53956033333333331</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2512,10 +2525,10 @@
         <v>0.89508566666666656</v>
       </c>
       <c r="G54" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="H54" s="2">
-        <v>0.7813416666666666</v>
+        <v>0.53465733333333332</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2540,10 +2553,10 @@
         <v>0.70153100000000002</v>
       </c>
       <c r="G55" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="H55" s="2">
-        <v>0.77984799999999999</v>
+        <v>0.53314633333333328</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2568,10 +2581,10 @@
         <v>0.48703433333333335</v>
       </c>
       <c r="G56" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="H56" s="2">
-        <v>0.76784966666666654</v>
+        <v>0.53168633333333337</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2596,10 +2609,10 @@
         <v>0.47126933333333332</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H57" s="2">
-        <v>0.75696933333333338</v>
+        <v>0.52635933333333329</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2624,10 +2637,10 @@
         <v>0.45621833333333334</v>
       </c>
       <c r="G58" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="H58" s="2">
-        <v>0.75464866666666663</v>
+        <v>0.52521233333333339</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2652,10 +2665,10 @@
         <v>0.44173633333333334</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="H59" s="2">
-        <v>0.75308433333333324</v>
+        <v>0.52152633333333331</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2680,10 +2693,10 @@
         <v>0.4277063333333333</v>
       </c>
       <c r="G60" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="H60" s="2">
-        <v>0.74168366666666663</v>
+        <v>0.51928533333333327</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2708,10 +2721,10 @@
         <v>0.41404033333333329</v>
       </c>
       <c r="G61" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H61" s="2">
-        <v>0.73373599999999994</v>
+        <v>0.51618933333333328</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2736,10 +2749,10 @@
         <v>0.40066633333333335</v>
       </c>
       <c r="G62" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H62" s="2">
-        <v>0.72890666666666659</v>
+        <v>0.51386633333333331</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2764,10 +2777,10 @@
         <v>0.22086066666666665</v>
       </c>
       <c r="G63" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="H63" s="2">
-        <v>0.72806699999999991</v>
+        <v>0.51375033333333331</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2792,10 +2805,10 @@
         <v>0.53465733333333332</v>
       </c>
       <c r="G64" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="H64" s="2">
-        <v>0.70449899999999999</v>
+        <v>0.50891533333333328</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2820,10 +2833,10 @@
         <v>0.69573799999999997</v>
       </c>
       <c r="G65" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="H65" s="2">
-        <v>0.70153100000000002</v>
+        <v>0.50661533333333331</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2848,10 +2861,10 @@
         <v>0.46017733333333327</v>
       </c>
       <c r="G66" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H66" s="2">
-        <v>0.69573799999999997</v>
+        <v>0.50236733333333328</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2862,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" ref="C67:C130" si="2" xml:space="preserve"> B67/MAX(B67:B266)</f>
+        <f t="shared" ref="C67:C130" si="2">B67/6</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D67" s="3">
@@ -2876,10 +2889,10 @@
         <v>0.44821833333333333</v>
       </c>
       <c r="G67" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="H67" s="2">
-        <v>0.69187900000000002</v>
+        <v>0.5012293333333333</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2904,10 +2917,10 @@
         <v>0.60775599999999996</v>
       </c>
       <c r="G68" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="H68" s="2">
-        <v>0.67241499999999998</v>
+        <v>0.49849433333333332</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2932,10 +2945,10 @@
         <v>0.60117399999999999</v>
       </c>
       <c r="G69" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H69" s="2">
-        <v>0.66660600000000003</v>
+        <v>0.49410633333333331</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2960,10 +2973,10 @@
         <v>0.41361133333333328</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="H70" s="2">
-        <v>0.66378233333333325</v>
+        <v>0.49103833333333335</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2988,10 +3001,10 @@
         <v>0.40567033333333335</v>
       </c>
       <c r="G71" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H71" s="2">
-        <v>0.66305000000000014</v>
+        <v>0.48980333333333331</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3016,10 +3029,10 @@
         <v>0.58717800000000009</v>
       </c>
       <c r="G72" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="H72" s="2">
-        <v>0.65647000000000011</v>
+        <v>0.48764033333333334</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3044,10 +3057,10 @@
         <v>0.43729833333333334</v>
       </c>
       <c r="G73" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="H73" s="2">
-        <v>0.63390500000000005</v>
+        <v>0.48703433333333335</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3072,10 +3085,10 @@
         <v>0.80963966666666665</v>
       </c>
       <c r="G74" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="H74" s="2">
-        <v>0.633467</v>
+        <v>0.48386833333333329</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3100,10 +3113,10 @@
         <v>0.41797833333333329</v>
       </c>
       <c r="G75" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="H75" s="2">
-        <v>0.63205600000000006</v>
+        <v>0.48281533333333332</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3128,10 +3141,10 @@
         <v>0.42747133333333331</v>
       </c>
       <c r="G76" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="H76" s="2">
-        <v>0.63134999999999997</v>
+        <v>0.48034733333333329</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3156,10 +3169,10 @@
         <v>0.44015633333333332</v>
       </c>
       <c r="G77" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H77" s="2">
-        <v>0.62260000000000004</v>
+        <v>0.47919533333333331</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3184,10 +3197,10 @@
         <v>0.45441033333333331</v>
       </c>
       <c r="G78" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="H78" s="2">
-        <v>0.61888100000000001</v>
+        <v>0.47908833333333328</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3212,10 +3225,10 @@
         <v>1.0600943333333335</v>
       </c>
       <c r="G79" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="H79" s="2">
-        <v>0.61853899999999995</v>
+        <v>0.47904333333333327</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3240,10 +3253,10 @@
         <v>0.43069133333333331</v>
       </c>
       <c r="G80" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="H80" s="2">
-        <v>0.61520300000000006</v>
+        <v>0.47657233333333326</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3268,10 +3281,10 @@
         <v>0.86636166666666659</v>
       </c>
       <c r="G81" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="H81" s="2">
-        <v>0.61354799999999998</v>
+        <v>0.47625433333333334</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3296,10 +3309,10 @@
         <v>0.43805233333333332</v>
       </c>
       <c r="G82" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="H82" s="2">
-        <v>0.61111400000000005</v>
+        <v>0.47616933333333333</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3324,10 +3337,10 @@
         <v>0.63390500000000005</v>
       </c>
       <c r="G83" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="H83" s="2">
-        <v>0.60775599999999996</v>
+        <v>0.47442033333333333</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3352,10 +3365,10 @@
         <v>0.47151133333333334</v>
       </c>
       <c r="G84" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="H84" s="2">
-        <v>0.60117399999999999</v>
+        <v>0.47437533333333332</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3380,10 +3393,10 @@
         <v>0.45655633333333334</v>
       </c>
       <c r="G85" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="H85" s="2">
-        <v>0.60009599999999996</v>
+        <v>0.47151133333333334</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3408,10 +3421,10 @@
         <v>0.44387633333333332</v>
       </c>
       <c r="G86" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="H86" s="2">
-        <v>0.58819299999999997</v>
+        <v>0.47140733333333329</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3436,10 +3449,10 @@
         <v>0.61853899999999995</v>
       </c>
       <c r="G87" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H87" s="2">
-        <v>0.58717800000000009</v>
+        <v>0.47126933333333332</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3464,10 +3477,10 @@
         <v>0.61354799999999998</v>
       </c>
       <c r="G88" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="H88" s="2">
-        <v>0.58603799999999995</v>
+        <v>0.46901933333333334</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3492,10 +3505,10 @@
         <v>0.42686133333333331</v>
       </c>
       <c r="G89" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="H89" s="2">
-        <v>0.58479899999999996</v>
+        <v>0.46867733333333328</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3520,10 +3533,10 @@
         <v>0.41508633333333328</v>
       </c>
       <c r="G90" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="H90" s="2">
-        <v>0.58285600000000004</v>
+        <v>0.46729933333333334</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3548,10 +3561,10 @@
         <v>0.57536900000000002</v>
       </c>
       <c r="G91" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H91" s="2">
-        <v>0.57558200000000004</v>
+        <v>0.46724733333333335</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3576,10 +3589,10 @@
         <v>0.22476866666666667</v>
       </c>
       <c r="G92" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="H92" s="2">
-        <v>0.57536900000000002</v>
+        <v>0.46680033333333332</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3604,10 +3617,10 @@
         <v>0.40359133333333336</v>
       </c>
       <c r="G93" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H93" s="2">
-        <v>0.57394199999999995</v>
+        <v>0.46468333333333334</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3632,10 +3645,10 @@
         <v>0.46377333333333337</v>
       </c>
       <c r="G94" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="H94" s="2">
-        <v>0.57096199999999997</v>
+        <v>0.46377333333333337</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3660,10 +3673,10 @@
         <v>0.47919533333333331</v>
       </c>
       <c r="G95" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="H95" s="2">
-        <v>0.56878700000000004</v>
+        <v>0.46263933333333329</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3688,10 +3701,10 @@
         <v>0.47140733333333329</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="H96" s="2">
-        <v>0.5682773333333333</v>
+        <v>0.46225133333333335</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3716,10 +3729,10 @@
         <v>1.1428913333333335</v>
       </c>
       <c r="G97" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="H97" s="2">
-        <v>0.56789600000000007</v>
+        <v>0.46186333333333329</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3744,10 +3757,10 @@
         <v>0.4521803333333333</v>
       </c>
       <c r="G98" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="H98" s="2">
-        <v>0.56724799999999997</v>
+        <v>0.46184033333333335</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3772,10 +3785,10 @@
         <v>0.62260000000000004</v>
       </c>
       <c r="G99" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="H99" s="2">
-        <v>0.56516100000000002</v>
+        <v>0.46017733333333327</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3800,10 +3813,10 @@
         <v>0.44001033333333328</v>
       </c>
       <c r="G100" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H100" s="2">
-        <v>0.56283499999999997</v>
+        <v>0.45908633333333332</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3828,10 +3841,10 @@
         <v>0.44308733333333333</v>
       </c>
       <c r="G101" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="H101" s="2">
-        <v>0.56132033333333331</v>
+        <v>0.45655633333333334</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3856,10 +3869,10 @@
         <v>0.82808066666666658</v>
       </c>
       <c r="G102" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="H102" s="2">
-        <v>0.56077299999999997</v>
+        <v>0.45621833333333334</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3884,10 +3897,10 @@
         <v>1.3376059999999999</v>
       </c>
       <c r="G103" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="H103" s="2">
-        <v>0.56076300000000001</v>
+        <v>0.45441033333333331</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3899,7 +3912,7 @@
       </c>
       <c r="C104" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D104" s="3">
         <v>7.4586E-2</v>
@@ -3909,13 +3922,13 @@
       </c>
       <c r="F104" s="2">
         <f t="shared" si="3"/>
-        <v>0.58285600000000004</v>
+        <v>0.51618933333333328</v>
       </c>
       <c r="G104" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H104" s="2">
-        <v>0.55854700000000002</v>
+        <v>0.45268533333333333</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3927,7 +3940,7 @@
       </c>
       <c r="C105" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D105" s="3">
         <v>6.6007999999999997E-2</v>
@@ -3937,13 +3950,13 @@
       </c>
       <c r="F105" s="2">
         <f t="shared" si="3"/>
-        <v>0.56516100000000002</v>
+        <v>0.49849433333333332</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="H105" s="2">
-        <v>0.55347833333333329</v>
+        <v>0.45221433333333333</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3955,7 +3968,7 @@
       </c>
       <c r="C106" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D106" s="3">
         <v>5.7777000000000002E-2</v>
@@ -3965,13 +3978,13 @@
       </c>
       <c r="F106" s="2">
         <f t="shared" si="3"/>
-        <v>0.54948200000000003</v>
+        <v>0.48281533333333332</v>
       </c>
       <c r="G106" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="H106" s="2">
-        <v>0.55321433333333336</v>
+        <v>0.4521803333333333</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3983,7 +3996,7 @@
       </c>
       <c r="C107" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D107" s="3">
         <v>5.0205E-2</v>
@@ -3993,13 +4006,13 @@
       </c>
       <c r="F107" s="2">
         <f t="shared" si="3"/>
-        <v>0.535686</v>
+        <v>0.46901933333333334</v>
       </c>
       <c r="G107" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="H107" s="2">
-        <v>0.54948200000000003</v>
+        <v>0.45069233333333331</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4011,7 +4024,7 @@
       </c>
       <c r="C108" s="3">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D108" s="3">
         <v>4.6575999999999999E-2</v>
@@ -4021,13 +4034,13 @@
       </c>
       <c r="F108" s="2">
         <f t="shared" si="3"/>
-        <v>0.72806699999999991</v>
+        <v>0.62806699999999993</v>
       </c>
       <c r="G108" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H108" s="2">
-        <v>0.54897899999999999</v>
+        <v>0.44983933333333331</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4039,7 +4052,7 @@
       </c>
       <c r="C109" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D109" s="3">
         <v>2.163E-2</v>
@@ -4049,13 +4062,13 @@
       </c>
       <c r="F109" s="2">
         <f t="shared" si="3"/>
-        <v>0.49761299999999997</v>
+        <v>0.43094633333333332</v>
       </c>
       <c r="G109" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="H109" s="2">
-        <v>0.547014</v>
+        <v>0.44978733333333332</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4067,7 +4080,7 @@
       </c>
       <c r="C110" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D110" s="3">
         <v>1.4644000000000001E-2</v>
@@ -4077,13 +4090,13 @@
       </c>
       <c r="F110" s="2">
         <f t="shared" si="3"/>
-        <v>0.486537</v>
+        <v>0.41987033333333329</v>
       </c>
       <c r="G110" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="H110" s="2">
-        <v>0.54575499999999999</v>
+        <v>0.44853633333333331</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4095,7 +4108,7 @@
       </c>
       <c r="C111" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D111" s="3">
         <v>1.0652999999999999E-2</v>
@@ -4105,13 +4118,13 @@
       </c>
       <c r="F111" s="2">
         <f t="shared" si="3"/>
-        <v>0.48087200000000008</v>
+        <v>0.41420533333333331</v>
       </c>
       <c r="G111" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="H111" s="2">
-        <v>0.54571000000000003</v>
+        <v>0.44821833333333333</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4123,7 +4136,7 @@
       </c>
       <c r="C112" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D112" s="3">
         <v>8.1399999999999997E-3</v>
@@ -4133,13 +4146,13 @@
       </c>
       <c r="F112" s="2">
         <f t="shared" si="3"/>
-        <v>0.47718899999999997</v>
+        <v>0.41052233333333332</v>
       </c>
       <c r="G112" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="H112" s="2">
-        <v>0.54292099999999999</v>
+        <v>0.44800833333333334</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4151,7 +4164,7 @@
       </c>
       <c r="C113" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D113" s="3">
         <v>1.1617000000000001E-2</v>
@@ -4161,13 +4174,13 @@
       </c>
       <c r="F113" s="2">
         <f t="shared" si="3"/>
-        <v>0.48236000000000001</v>
+        <v>0.4156933333333333</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="H113" s="2">
-        <v>0.53956033333333331</v>
+        <v>0.44703633333333326</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4179,7 +4192,7 @@
       </c>
       <c r="C114" s="3">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D114" s="3">
         <v>5.8214000000000002E-2</v>
@@ -4189,13 +4202,13 @@
       </c>
       <c r="F114" s="2">
         <f t="shared" si="3"/>
-        <v>0.73373599999999994</v>
+        <v>0.63373599999999997</v>
       </c>
       <c r="G114" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="H114" s="2">
-        <v>0.535686</v>
+        <v>0.44699333333333335</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4207,7 +4220,7 @@
       </c>
       <c r="C115" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D115" s="3">
         <v>2.9846000000000001E-2</v>
@@ -4217,13 +4230,13 @@
       </c>
       <c r="F115" s="2">
         <f t="shared" si="3"/>
-        <v>0.50023899999999999</v>
+        <v>0.43357233333333328</v>
       </c>
       <c r="G115" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="H115" s="2">
-        <v>0.53534400000000004</v>
+        <v>0.4469083333333333</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4235,7 +4248,7 @@
       </c>
       <c r="C116" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D116" s="3">
         <v>1.9998999999999999E-2</v>
@@ -4245,13 +4258,13 @@
       </c>
       <c r="F116" s="2">
         <f t="shared" si="3"/>
-        <v>0.485871</v>
+        <v>0.41920433333333329</v>
       </c>
       <c r="G116" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="H116" s="2">
-        <v>0.53465733333333332</v>
+        <v>0.44387633333333332</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4263,7 +4276,7 @@
       </c>
       <c r="C117" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D117" s="3">
         <v>1.005E-2</v>
@@ -4273,13 +4286,13 @@
       </c>
       <c r="F117" s="2">
         <f t="shared" si="3"/>
-        <v>0.47190900000000002</v>
+        <v>0.40524233333333332</v>
       </c>
       <c r="G117" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="H117" s="2">
-        <v>0.533914</v>
+        <v>0.44321433333333327</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4291,7 +4304,7 @@
       </c>
       <c r="C118" s="3">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D118" s="3">
         <v>0</v>
@@ -4301,13 +4314,13 @@
       </c>
       <c r="F118" s="2">
         <f t="shared" si="3"/>
-        <v>0.258272</v>
+        <v>0.22493866666666665</v>
       </c>
       <c r="G118" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="H118" s="2">
-        <v>0.53168633333333337</v>
+        <v>0.44308733333333333</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4319,7 +4332,7 @@
       </c>
       <c r="C119" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D119" s="3">
         <v>6.4913999999999999E-2</v>
@@ -4329,13 +4342,13 @@
       </c>
       <c r="F119" s="2">
         <f t="shared" si="3"/>
-        <v>0.54571000000000003</v>
+        <v>0.47904333333333327</v>
       </c>
       <c r="G119" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="H119" s="2">
-        <v>0.52930600000000005</v>
+        <v>0.44173633333333334</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4347,7 +4360,7 @@
       </c>
       <c r="C120" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D120" s="3">
         <v>7.3797000000000001E-2</v>
@@ -4357,13 +4370,13 @@
       </c>
       <c r="F120" s="2">
         <f t="shared" si="3"/>
-        <v>0.56077299999999997</v>
+        <v>0.49410633333333331</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="H120" s="2">
-        <v>0.52635933333333329</v>
+        <v>0.44015633333333332</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4375,7 +4388,7 @@
       </c>
       <c r="C121" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D121" s="3">
         <v>7.1900000000000006E-2</v>
@@ -4385,13 +4398,13 @@
       </c>
       <c r="F121" s="2">
         <f t="shared" si="3"/>
-        <v>0.56789600000000007</v>
+        <v>0.5012293333333333</v>
       </c>
       <c r="G121" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="H121" s="2">
-        <v>0.51735900000000001</v>
+        <v>0.44001033333333328</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4403,7 +4416,7 @@
       </c>
       <c r="C122" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D122" s="3">
         <v>7.5832999999999998E-2</v>
@@ -4413,13 +4426,13 @@
       </c>
       <c r="F122" s="2">
         <f t="shared" si="3"/>
-        <v>0.57558200000000004</v>
+        <v>0.50891533333333328</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H122" s="2">
-        <v>0.51375033333333331</v>
+        <v>0.43935033333333334</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4431,7 +4444,7 @@
       </c>
       <c r="C123" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D123" s="3">
         <v>8.2228999999999997E-2</v>
@@ -4441,13 +4454,13 @@
       </c>
       <c r="F123" s="2">
         <f t="shared" si="3"/>
-        <v>0.58819299999999997</v>
+        <v>0.52152633333333331</v>
       </c>
       <c r="G123" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="H123" s="2">
-        <v>0.51370300000000002</v>
+        <v>0.43852033333333329</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4459,7 +4472,7 @@
       </c>
       <c r="C124" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D124" s="3">
         <v>3.5964999999999997E-2</v>
@@ -4469,13 +4482,13 @@
       </c>
       <c r="F124" s="2">
         <f t="shared" si="3"/>
-        <v>0.547014</v>
+        <v>0.48034733333333329</v>
       </c>
       <c r="G124" t="s">
         <v>132</v>
       </c>
       <c r="H124" s="2">
-        <v>0.50495999999999996</v>
+        <v>0.43829333333333331</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4487,7 +4500,7 @@
       </c>
       <c r="C125" s="3">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D125" s="3">
         <v>0.14091200000000001</v>
@@ -4497,13 +4510,13 @@
       </c>
       <c r="F125" s="2">
         <f t="shared" si="3"/>
-        <v>1.0512840000000001</v>
+        <v>0.91795066666666669</v>
       </c>
       <c r="G125" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H125" s="2">
-        <v>0.50236733333333328</v>
+        <v>0.43823533333333331</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4515,7 +4528,7 @@
       </c>
       <c r="C126" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D126" s="3">
         <v>4.4943999999999998E-2</v>
@@ -4525,13 +4538,13 @@
       </c>
       <c r="F126" s="2">
         <f t="shared" si="3"/>
-        <v>0.54575499999999999</v>
+        <v>0.47908833333333328</v>
       </c>
       <c r="G126" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="H126" s="2">
-        <v>0.50222900000000004</v>
+        <v>0.4381423333333333</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4543,7 +4556,7 @@
       </c>
       <c r="C127" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D127" s="3">
         <v>3.8880999999999999E-2</v>
@@ -4553,13 +4566,13 @@
       </c>
       <c r="F127" s="2">
         <f t="shared" si="3"/>
-        <v>0.533914</v>
+        <v>0.46724733333333335</v>
       </c>
       <c r="G127" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="H127" s="2">
-        <v>0.50023899999999999</v>
+        <v>0.43805233333333332</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4571,7 +4584,7 @@
       </c>
       <c r="C128" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D128" s="3">
         <v>3.0911999999999999E-2</v>
@@ -4581,13 +4594,13 @@
       </c>
       <c r="F128" s="2">
         <f t="shared" si="3"/>
-        <v>0.51735900000000001</v>
+        <v>0.45069233333333331</v>
       </c>
       <c r="G128" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="H128" s="2">
-        <v>0.49761299999999997</v>
+        <v>0.43729833333333334</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4599,7 +4612,7 @@
       </c>
       <c r="C129" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D129" s="3">
         <v>2.3602999999999999E-2</v>
@@ -4609,13 +4622,13 @@
       </c>
       <c r="F129" s="2">
         <f t="shared" si="3"/>
-        <v>0.50495999999999996</v>
+        <v>0.43829333333333331</v>
       </c>
       <c r="G129" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="H129" s="2">
-        <v>0.49681600000000004</v>
+        <v>0.43723933333333331</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4627,7 +4640,7 @@
       </c>
       <c r="C130" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D130" s="3">
         <v>1.8654E-2</v>
@@ -4637,13 +4650,13 @@
       </c>
       <c r="F130" s="2">
         <f t="shared" si="3"/>
-        <v>0.49681600000000004</v>
+        <v>0.43014933333333333</v>
       </c>
       <c r="G130" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="H130" s="2">
-        <v>0.48916799999999999</v>
+        <v>0.43719233333333329</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4654,8 +4667,8 @@
         <v>2</v>
       </c>
       <c r="C131" s="3">
-        <f t="shared" ref="C131:C194" si="4" xml:space="preserve"> B131/MAX(B131:B330)</f>
-        <v>0.4</v>
+        <f t="shared" ref="C131:C194" si="4">B131/6</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D131" s="3">
         <v>1.4886999999999999E-2</v>
@@ -4665,13 +4678,13 @@
       </c>
       <c r="F131" s="2">
         <f t="shared" si="3"/>
-        <v>0.48916799999999999</v>
+        <v>0.42250133333333328</v>
       </c>
       <c r="G131" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="H131" s="2">
-        <v>0.48764033333333334</v>
+        <v>0.43556233333333333</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4683,7 +4696,7 @@
       </c>
       <c r="C132" s="3">
         <f t="shared" si="4"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D132" s="3">
         <v>9.5453999999999997E-2</v>
@@ -4693,13 +4706,13 @@
       </c>
       <c r="F132" s="2">
         <f t="shared" ref="F132:H195" si="5">(C132+D132+E132)</f>
-        <v>0.77984799999999999</v>
+        <v>0.67984800000000001</v>
       </c>
       <c r="G132" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="H132" s="2">
-        <v>0.48703433333333335</v>
+        <v>0.43451633333333334</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4711,7 +4724,7 @@
       </c>
       <c r="C133" s="3">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D133" s="3">
         <v>0</v>
@@ -4721,13 +4734,13 @@
       </c>
       <c r="F133" s="2">
         <f t="shared" si="5"/>
-        <v>0.26604700000000003</v>
+        <v>0.23271366666666665</v>
       </c>
       <c r="G133" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="H133" s="2">
-        <v>0.486537</v>
+        <v>0.43397233333333329</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4739,7 +4752,7 @@
       </c>
       <c r="C134" s="3">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D134" s="3">
         <v>1.005E-2</v>
@@ -4749,13 +4762,13 @@
       </c>
       <c r="F134" s="2">
         <f t="shared" si="5"/>
-        <v>0.48074300000000003</v>
+        <v>0.41407633333333332</v>
       </c>
       <c r="G134" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H134" s="2">
-        <v>0.485871</v>
+        <v>0.43357233333333328</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4767,7 +4780,7 @@
       </c>
       <c r="C135" s="3">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D135" s="3">
         <v>6.1746000000000002E-2</v>
@@ -4777,13 +4790,13 @@
       </c>
       <c r="F135" s="2">
         <f t="shared" si="5"/>
-        <v>0.93772900000000003</v>
+        <v>0.80439566666666662</v>
       </c>
       <c r="G135" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H135" s="2">
-        <v>0.48386833333333329</v>
+        <v>0.43354033333333331</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4795,7 +4808,7 @@
       </c>
       <c r="C136" s="3">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D136" s="3">
         <v>2.4947E-2</v>
@@ -4805,13 +4818,13 @@
       </c>
       <c r="F136" s="2">
         <f t="shared" si="5"/>
-        <v>0.50222900000000004</v>
+        <v>0.43556233333333333</v>
       </c>
       <c r="G136" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="H136" s="2">
-        <v>0.48236000000000001</v>
+        <v>0.43342933333333333</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4823,7 +4836,7 @@
       </c>
       <c r="C137" s="3">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D137" s="3">
         <v>3.1775999999999999E-2</v>
@@ -4833,13 +4846,13 @@
       </c>
       <c r="F137" s="2">
         <f t="shared" si="5"/>
-        <v>0.51370300000000002</v>
+        <v>0.44703633333333326</v>
       </c>
       <c r="G137" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="H137" s="2">
-        <v>0.48087200000000008</v>
+        <v>0.43296433333333328</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4851,7 +4864,7 @@
       </c>
       <c r="C138" s="3">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D138" s="3">
         <v>4.0862000000000002E-2</v>
@@ -4861,13 +4874,13 @@
       </c>
       <c r="F138" s="2">
         <f t="shared" si="5"/>
-        <v>0.52930600000000005</v>
+        <v>0.46263933333333329</v>
       </c>
       <c r="G138" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="H138" s="2">
-        <v>0.48074300000000003</v>
+        <v>0.43161833333333333</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4879,7 +4892,7 @@
       </c>
       <c r="C139" s="3">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D139" s="3">
         <v>3.6486999999999999E-2</v>
@@ -4889,13 +4902,13 @@
       </c>
       <c r="F139" s="2">
         <f t="shared" si="5"/>
-        <v>0.53534400000000004</v>
+        <v>0.46867733333333328</v>
       </c>
       <c r="G139" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="H139" s="2">
-        <v>0.47919533333333331</v>
+        <v>0.43137233333333336</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4907,7 +4920,7 @@
       </c>
       <c r="C140" s="3">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D140" s="3">
         <v>4.0606999999999997E-2</v>
@@ -4917,13 +4930,13 @@
       </c>
       <c r="F140" s="2">
         <f t="shared" si="5"/>
-        <v>0.54292099999999999</v>
+        <v>0.47625433333333334</v>
       </c>
       <c r="G140" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H140" s="2">
-        <v>0.47718899999999997</v>
+        <v>0.43094633333333332</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4935,7 +4948,7 @@
       </c>
       <c r="C141" s="3">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D141" s="3">
         <v>0.15442600000000001</v>
@@ -4945,13 +4958,13 @@
       </c>
       <c r="F141" s="2">
         <f t="shared" si="5"/>
-        <v>0.66305000000000014</v>
+        <v>0.59638333333333327</v>
       </c>
       <c r="G141" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="H141" s="2">
-        <v>0.47437533333333332</v>
+        <v>0.43069133333333331</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4963,7 +4976,7 @@
       </c>
       <c r="C142" s="3">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D142" s="3">
         <v>0.15604999999999999</v>
@@ -4973,13 +4986,13 @@
       </c>
       <c r="F142" s="2">
         <f t="shared" si="5"/>
-        <v>0.66660600000000003</v>
+        <v>0.59993933333333327</v>
       </c>
       <c r="G142" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="H142" s="2">
-        <v>0.47190900000000002</v>
+        <v>0.43014933333333333</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4991,7 +5004,7 @@
       </c>
       <c r="C143" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D143" s="3">
         <v>0.233462</v>
@@ -5001,13 +5014,13 @@
       </c>
       <c r="F143" s="2">
         <f t="shared" si="5"/>
-        <v>1.3462100000000001</v>
+        <v>1.1795433333333334</v>
       </c>
       <c r="G143" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="H143" s="2">
-        <v>0.47151133333333334</v>
+        <v>0.42824933333333332</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5019,7 +5032,7 @@
       </c>
       <c r="C144" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D144" s="3">
         <v>8.5689000000000001E-2</v>
@@ -5029,13 +5042,13 @@
       </c>
       <c r="F144" s="2">
         <f t="shared" si="5"/>
-        <v>0.69187900000000002</v>
+        <v>0.52521233333333339</v>
       </c>
       <c r="G144" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="H144" s="2">
-        <v>0.47140733333333329</v>
+        <v>0.4277063333333333</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5047,7 +5060,7 @@
       </c>
       <c r="C145" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D145" s="3">
         <v>0.17762500000000001</v>
@@ -5057,13 +5070,13 @@
       </c>
       <c r="F145" s="2">
         <f t="shared" si="5"/>
-        <v>1.2814869999999998</v>
+        <v>0.94815366666666667</v>
       </c>
       <c r="G145" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H145" s="2">
-        <v>0.47126933333333332</v>
+        <v>0.42747133333333331</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5075,7 +5088,7 @@
       </c>
       <c r="C146" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D146" s="3">
         <v>5.8439999999999999E-2</v>
@@ -5085,13 +5098,13 @@
       </c>
       <c r="F146" s="2">
         <f t="shared" si="5"/>
-        <v>0.65647000000000011</v>
+        <v>0.48980333333333331</v>
       </c>
       <c r="G146" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H146" s="2">
-        <v>0.46377333333333337</v>
+        <v>0.42686133333333331</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5103,7 +5116,7 @@
       </c>
       <c r="C147" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D147" s="3">
         <v>4.1426999999999999E-2</v>
@@ -5113,13 +5126,13 @@
       </c>
       <c r="F147" s="2">
         <f t="shared" si="5"/>
-        <v>0.63134999999999997</v>
+        <v>0.46468333333333334</v>
       </c>
       <c r="G147" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H147" s="2">
-        <v>0.46184033333333335</v>
+        <v>0.4268433333333333</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5131,7 +5144,7 @@
       </c>
       <c r="C148" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D148" s="3">
         <v>3.2113000000000003E-2</v>
@@ -5141,13 +5154,13 @@
       </c>
       <c r="F148" s="2">
         <f t="shared" si="5"/>
-        <v>0.61520300000000006</v>
+        <v>0.44853633333333331</v>
       </c>
       <c r="G148" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="H148" s="2">
-        <v>0.46017733333333327</v>
+        <v>0.4265363333333333</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5159,7 +5172,7 @@
       </c>
       <c r="C149" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D149" s="3">
         <v>2.2873999999999999E-2</v>
@@ -5169,13 +5182,13 @@
       </c>
       <c r="F149" s="2">
         <f t="shared" si="5"/>
-        <v>0.60009599999999996</v>
+        <v>0.43342933333333333</v>
       </c>
       <c r="G149" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="H149" s="2">
-        <v>0.45655633333333334</v>
+        <v>0.42499233333333331</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5187,7 +5200,7 @@
       </c>
       <c r="C150" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D150" s="3">
         <v>1.391E-2</v>
@@ -5197,13 +5210,13 @@
       </c>
       <c r="F150" s="2">
         <f t="shared" si="5"/>
-        <v>0.58603799999999995</v>
+        <v>0.41937133333333332</v>
       </c>
       <c r="G150" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H150" s="2">
-        <v>0.45621833333333334</v>
+        <v>0.42492433333333335</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5215,7 +5228,7 @@
       </c>
       <c r="C151" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D151" s="3">
         <v>5.6740000000000002E-3</v>
@@ -5225,13 +5238,13 @@
       </c>
       <c r="F151" s="2">
         <f t="shared" si="5"/>
-        <v>0.57394199999999995</v>
+        <v>0.40727533333333332</v>
       </c>
       <c r="G151" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="H151" s="2">
-        <v>0.45441033333333331</v>
+        <v>0.42250133333333328</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5243,7 +5256,7 @@
       </c>
       <c r="C152" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D152" s="3">
         <v>2.3210000000000001E-3</v>
@@ -5253,13 +5266,13 @@
       </c>
       <c r="F152" s="2">
         <f t="shared" si="5"/>
-        <v>0.56724799999999997</v>
+        <v>0.40058133333333334</v>
       </c>
       <c r="G152" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="H152" s="2">
-        <v>0.4521803333333333</v>
+        <v>0.4224053333333333</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5271,7 +5284,7 @@
       </c>
       <c r="C153" s="3">
         <f t="shared" si="4"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D153" s="3">
         <v>3.6639999999999999E-2</v>
@@ -5281,13 +5294,13 @@
       </c>
       <c r="F153" s="2">
         <f t="shared" si="5"/>
-        <v>0.85580900000000004</v>
+        <v>0.60580900000000004</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="H153" s="2">
-        <v>0.44978733333333332</v>
+        <v>0.42131533333333332</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5299,7 +5312,7 @@
       </c>
       <c r="C154" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D154" s="3">
         <v>5.4279000000000001E-2</v>
@@ -5309,13 +5322,13 @@
       </c>
       <c r="F154" s="2">
         <f t="shared" si="5"/>
-        <v>0.633467</v>
+        <v>0.46680033333333332</v>
       </c>
       <c r="G154" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="H154" s="2">
-        <v>0.44821833333333333</v>
+        <v>0.42084533333333329</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5327,7 +5340,7 @@
       </c>
       <c r="C155" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D155" s="3">
         <v>4.5040999999999998E-2</v>
@@ -5337,13 +5350,13 @@
       </c>
       <c r="F155" s="2">
         <f t="shared" si="5"/>
-        <v>0.61888100000000001</v>
+        <v>0.45221433333333333</v>
       </c>
       <c r="G155" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H155" s="2">
-        <v>0.44699333333333335</v>
+        <v>0.42044533333333328</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5355,7 +5368,7 @@
       </c>
       <c r="C156" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D156" s="3">
         <v>1.9998999999999999E-2</v>
@@ -5365,13 +5378,13 @@
       </c>
       <c r="F156" s="2">
         <f t="shared" si="5"/>
-        <v>0.58479899999999996</v>
+        <v>0.41813233333333333</v>
       </c>
       <c r="G156" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="H156" s="2">
-        <v>0.4469083333333333</v>
+        <v>0.41993933333333328</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5383,7 +5396,7 @@
       </c>
       <c r="C157" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D157" s="3">
         <v>1.005E-2</v>
@@ -5393,13 +5406,13 @@
       </c>
       <c r="F157" s="2">
         <f t="shared" si="5"/>
-        <v>0.57096199999999997</v>
+        <v>0.40429533333333334</v>
       </c>
       <c r="G157" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="H157" s="2">
-        <v>0.44387633333333332</v>
+        <v>0.41987033333333329</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5411,7 +5424,7 @@
       </c>
       <c r="C158" s="3">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D158" s="3">
         <v>0</v>
@@ -5421,13 +5434,13 @@
       </c>
       <c r="F158" s="2">
         <f t="shared" si="5"/>
-        <v>0.30743100000000001</v>
+        <v>0.22409766666666667</v>
       </c>
       <c r="G158" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="H158" s="2">
-        <v>0.44308733333333333</v>
+        <v>0.41964233333333334</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5439,7 +5452,7 @@
       </c>
       <c r="C159" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D159" s="3">
         <v>0.18268499999999999</v>
@@ -5449,13 +5462,13 @@
       </c>
       <c r="F159" s="2">
         <f t="shared" si="5"/>
-        <v>1.2765089999999999</v>
+        <v>0.94317566666666663</v>
       </c>
       <c r="G159" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="H159" s="2">
-        <v>0.44173633333333334</v>
+        <v>0.41955533333333328</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5467,7 +5480,7 @@
       </c>
       <c r="C160" s="3">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D160" s="3">
         <v>8.6798E-2</v>
@@ -5477,13 +5490,13 @@
       </c>
       <c r="F160" s="2">
         <f t="shared" si="5"/>
-        <v>0.83994866666666668</v>
+        <v>0.50661533333333331</v>
       </c>
       <c r="G160" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="H160" s="2">
-        <v>0.44015633333333332</v>
+        <v>0.41937133333333332</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5495,7 +5508,7 @@
       </c>
       <c r="C161" s="3">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D161" s="3">
         <v>7.7560000000000004E-2</v>
@@ -5505,13 +5518,13 @@
       </c>
       <c r="F161" s="2">
         <f t="shared" si="5"/>
-        <v>0.82437166666666661</v>
+        <v>0.49103833333333335</v>
       </c>
       <c r="G161" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="H161" s="2">
-        <v>0.44001033333333328</v>
+        <v>0.41920433333333329</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5523,7 +5536,7 @@
       </c>
       <c r="C162" s="3">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D162" s="3">
         <v>6.8220000000000003E-2</v>
@@ -5533,13 +5546,13 @@
       </c>
       <c r="F162" s="2">
         <f t="shared" si="5"/>
-        <v>0.8095026666666667</v>
+        <v>0.47616933333333333</v>
       </c>
       <c r="G162" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="H162" s="2">
-        <v>0.43935033333333334</v>
+        <v>0.41813233333333333</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5551,7 +5564,7 @@
       </c>
       <c r="C163" s="3">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D163" s="3">
         <v>5.8778999999999998E-2</v>
@@ -5561,13 +5574,13 @@
       </c>
       <c r="F163" s="2">
         <f t="shared" si="5"/>
-        <v>0.79519666666666666</v>
+        <v>0.46186333333333329</v>
       </c>
       <c r="G163" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="H163" s="2">
-        <v>0.43852033333333329</v>
+        <v>0.41797833333333329</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5579,7 +5592,7 @@
       </c>
       <c r="C164" s="3">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D164" s="3">
         <v>4.9236000000000002E-2</v>
@@ -5589,13 +5602,13 @@
       </c>
       <c r="F164" s="2">
         <f t="shared" si="5"/>
-        <v>0.7813416666666666</v>
+        <v>0.44800833333333334</v>
       </c>
       <c r="G164" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="H164" s="2">
-        <v>0.43823533333333331</v>
+        <v>0.41722333333333333</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5607,7 +5620,7 @@
       </c>
       <c r="C165" s="3">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D165" s="3">
         <v>3.9592000000000002E-2</v>
@@ -5617,13 +5630,13 @@
       </c>
       <c r="F165" s="2">
         <f t="shared" si="5"/>
-        <v>0.76784966666666654</v>
+        <v>0.43451633333333334</v>
       </c>
       <c r="G165" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H165" s="2">
-        <v>0.4381423333333333</v>
+        <v>0.41569933333333331</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5635,7 +5648,7 @@
       </c>
       <c r="C166" s="3">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D166" s="3">
         <v>2.9846000000000001E-2</v>
@@ -5645,13 +5658,13 @@
       </c>
       <c r="F166" s="2">
         <f t="shared" si="5"/>
-        <v>0.75464866666666663</v>
+        <v>0.42131533333333332</v>
       </c>
       <c r="G166" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="H166" s="2">
-        <v>0.43805233333333332</v>
+        <v>0.4156933333333333</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5663,7 +5676,7 @@
       </c>
       <c r="C167" s="3">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D167" s="3">
         <v>1.9998999999999999E-2</v>
@@ -5673,13 +5686,13 @@
       </c>
       <c r="F167" s="2">
         <f t="shared" si="5"/>
-        <v>0.74168366666666663</v>
+        <v>0.40835033333333332</v>
       </c>
       <c r="G167" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H167" s="2">
-        <v>0.43729833333333334</v>
+        <v>0.41508633333333328</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5691,7 +5704,7 @@
       </c>
       <c r="C168" s="3">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D168" s="3">
         <v>1.005E-2</v>
@@ -5701,13 +5714,13 @@
       </c>
       <c r="F168" s="2">
         <f t="shared" si="5"/>
-        <v>0.72890666666666659</v>
+        <v>0.39557333333333333</v>
       </c>
       <c r="G168" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="H168" s="2">
-        <v>0.43719233333333329</v>
+        <v>0.41420533333333331</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5719,7 +5732,7 @@
       </c>
       <c r="C169" s="3">
         <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D169" s="3">
         <v>0</v>
@@ -5729,13 +5742,13 @@
       </c>
       <c r="F169" s="2">
         <f t="shared" si="5"/>
-        <v>0.38294733333333331</v>
+        <v>0.21628066666666665</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="H169" s="2">
-        <v>0.43354033333333331</v>
+        <v>0.41407633333333332</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5747,7 +5760,7 @@
       </c>
       <c r="C170" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D170" s="3">
         <v>7.8321000000000002E-2</v>
@@ -5757,13 +5770,13 @@
       </c>
       <c r="F170" s="2">
         <f t="shared" si="5"/>
-        <v>1.164655</v>
+        <v>0.664655</v>
       </c>
       <c r="G170" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H170" s="2">
-        <v>0.43161833333333333</v>
+        <v>0.41404033333333329</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5775,7 +5788,7 @@
       </c>
       <c r="C171" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D171" s="3">
         <v>1.9998999999999999E-2</v>
@@ -5785,13 +5798,13 @@
       </c>
       <c r="F171" s="2">
         <f t="shared" si="5"/>
-        <v>1.099631</v>
+        <v>0.43296433333333328</v>
       </c>
       <c r="G171" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H171" s="2">
-        <v>0.43069133333333331</v>
+        <v>0.41361133333333328</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5803,7 +5816,7 @@
       </c>
       <c r="C172" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D172" s="3">
         <v>8.6798E-2</v>
@@ -5813,13 +5826,13 @@
       </c>
       <c r="F172" s="2">
         <f t="shared" si="5"/>
-        <v>1.1805329999999998</v>
+        <v>0.51386633333333331</v>
       </c>
       <c r="G172" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H172" s="2">
-        <v>0.42824933333333332</v>
+        <v>0.41052233333333332</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5831,7 +5844,7 @@
       </c>
       <c r="C173" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D173" s="3">
         <v>1.005E-2</v>
@@ -5841,13 +5854,13 @@
       </c>
       <c r="F173" s="2">
         <f t="shared" si="5"/>
-        <v>1.0838899999999998</v>
+        <v>0.41722333333333333</v>
       </c>
       <c r="G173" t="s">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="H173" s="2">
-        <v>0.4277063333333333</v>
+        <v>0.41040933333333329</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5859,7 +5872,7 @@
       </c>
       <c r="C174" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D174" s="3">
         <v>0</v>
@@ -5869,13 +5882,13 @@
       </c>
       <c r="F174" s="2">
         <f t="shared" si="5"/>
-        <v>0.56878700000000004</v>
+        <v>0.23545366666666667</v>
       </c>
       <c r="G174" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="H174" s="2">
-        <v>0.42747133333333331</v>
+        <v>0.40835033333333332</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5887,7 +5900,7 @@
       </c>
       <c r="C175" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D175" s="3">
         <v>3.9592000000000002E-2</v>
@@ -5897,13 +5910,13 @@
       </c>
       <c r="F175" s="2">
         <f t="shared" si="5"/>
-        <v>1.1193520000000001</v>
+        <v>0.45268533333333333</v>
       </c>
       <c r="G175" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="H175" s="2">
-        <v>0.42686133333333331</v>
+        <v>0.4080563333333333</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5915,7 +5928,7 @@
       </c>
       <c r="C176" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D176" s="3">
         <v>2.9846000000000001E-2</v>
@@ -5925,13 +5938,13 @@
       </c>
       <c r="F176" s="2">
         <f t="shared" si="5"/>
-        <v>1.1039060000000001</v>
+        <v>0.43723933333333331</v>
       </c>
       <c r="G176" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="H176" s="2">
-        <v>0.4268433333333333</v>
+        <v>0.40757033333333331</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5943,7 +5956,7 @@
       </c>
       <c r="C177" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D177" s="3">
         <v>1.9998999999999999E-2</v>
@@ -5953,13 +5966,13 @@
       </c>
       <c r="F177" s="2">
         <f t="shared" si="5"/>
-        <v>1.089072</v>
+        <v>0.4224053333333333</v>
       </c>
       <c r="G177" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="H177" s="2">
-        <v>0.4265363333333333</v>
+        <v>0.40727533333333332</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5971,7 +5984,7 @@
       </c>
       <c r="C178" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D178" s="3">
         <v>1.005E-2</v>
@@ -5981,13 +5994,13 @@
       </c>
       <c r="F178" s="2">
         <f t="shared" si="5"/>
-        <v>1.0747229999999999</v>
+        <v>0.4080563333333333</v>
       </c>
       <c r="G178" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="H178" s="2">
-        <v>0.42492433333333335</v>
+        <v>0.40567033333333335</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5999,7 +6012,7 @@
       </c>
       <c r="C179" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D179" s="3">
         <v>0</v>
@@ -6009,13 +6022,13 @@
       </c>
       <c r="F179" s="2">
         <f t="shared" si="5"/>
-        <v>0.56076300000000001</v>
+        <v>0.22742966666666664</v>
       </c>
       <c r="G179" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="H179" s="2">
-        <v>0.42084533333333329</v>
+        <v>0.40555133333333332</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6027,7 +6040,7 @@
       </c>
       <c r="C180" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D180" s="3">
         <v>2.9846000000000001E-2</v>
@@ -6037,13 +6050,13 @@
       </c>
       <c r="F180" s="2">
         <f t="shared" si="5"/>
-        <v>1.1006390000000001</v>
+        <v>0.43397233333333329</v>
       </c>
       <c r="G180" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="H180" s="2">
-        <v>0.42044533333333328</v>
+        <v>0.40524233333333332</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6055,7 +6068,7 @@
       </c>
       <c r="C181" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D181" s="3">
         <v>1.9998999999999999E-2</v>
@@ -6065,13 +6078,13 @@
       </c>
       <c r="F181" s="2">
         <f t="shared" si="5"/>
-        <v>1.086222</v>
+        <v>0.41955533333333328</v>
       </c>
       <c r="G181" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="H181" s="2">
-        <v>0.41993933333333328</v>
+        <v>0.40429533333333334</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6083,7 +6096,7 @@
       </c>
       <c r="C182" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D182" s="3">
         <v>1.005E-2</v>
@@ -6093,13 +6106,13 @@
       </c>
       <c r="F182" s="2">
         <f t="shared" si="5"/>
-        <v>1.0722179999999999</v>
+        <v>0.40555133333333332</v>
       </c>
       <c r="G182" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="H182" s="2">
-        <v>0.41964233333333334</v>
+        <v>0.40359133333333336</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6111,7 +6124,7 @@
       </c>
       <c r="C183" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D183" s="3">
         <v>0</v>
@@ -6121,13 +6134,13 @@
       </c>
       <c r="F183" s="2">
         <f t="shared" si="5"/>
-        <v>0.55854700000000002</v>
+        <v>0.22521366666666665</v>
       </c>
       <c r="G183" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="H183" s="2">
-        <v>0.41797833333333329</v>
+        <v>0.40329433333333331</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6139,7 +6152,7 @@
       </c>
       <c r="C184" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D184" s="3">
         <v>4.5478999999999999E-2</v>
@@ -6149,13 +6162,13 @@
       </c>
       <c r="F184" s="2">
         <f t="shared" si="5"/>
-        <v>1.125753</v>
+        <v>0.45908633333333332</v>
       </c>
       <c r="G184" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="H184" s="2">
-        <v>0.41569933333333331</v>
+        <v>0.40066633333333335</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6167,7 +6180,7 @@
       </c>
       <c r="C185" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D185" s="3">
         <v>5.4565000000000002E-2</v>
@@ -6177,13 +6190,13 @@
       </c>
       <c r="F185" s="2">
         <f t="shared" si="5"/>
-        <v>1.141087</v>
+        <v>0.47442033333333333</v>
       </c>
       <c r="G185" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="H185" s="2">
-        <v>0.41508633333333328</v>
+        <v>0.40058133333333334</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6195,7 +6208,7 @@
       </c>
       <c r="C186" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D186" s="3">
         <v>0.146866</v>
@@ -6205,13 +6218,13 @@
       </c>
       <c r="F186" s="2">
         <f t="shared" si="5"/>
-        <v>1.2435149999999999</v>
+        <v>0.5768483333333333</v>
       </c>
       <c r="G186" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="H186" s="2">
-        <v>0.41404033333333329</v>
+        <v>0.39557333333333333</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6223,7 +6236,7 @@
       </c>
       <c r="C187" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D187" s="3">
         <v>0.15110399999999999</v>
@@ -6233,13 +6246,13 @@
       </c>
       <c r="F187" s="2">
         <f t="shared" si="5"/>
-        <v>1.251104</v>
+        <v>0.58443733333333325</v>
       </c>
       <c r="G187" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="H187" s="2">
-        <v>0.41361133333333328</v>
+        <v>0.3948713333333333</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6251,7 +6264,7 @@
       </c>
       <c r="C188" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D188" s="3">
         <v>1.0486000000000001E-2</v>
@@ -6261,13 +6274,13 @@
       </c>
       <c r="F188" s="2">
         <f t="shared" si="5"/>
-        <v>1.116506</v>
+        <v>0.44983933333333331</v>
       </c>
       <c r="G188" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="H188" s="2">
-        <v>0.40567033333333335</v>
+        <v>0.39100233333333334</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6279,7 +6292,7 @@
       </c>
       <c r="C189" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D189" s="3">
         <v>2.4805000000000001E-2</v>
@@ -6289,13 +6302,13 @@
       </c>
       <c r="F189" s="2">
         <f t="shared" si="5"/>
-        <v>1.133966</v>
+        <v>0.46729933333333334</v>
       </c>
       <c r="G189" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="H189" s="2">
-        <v>0.40359133333333336</v>
+        <v>0.23858566666666664</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6307,7 +6320,7 @@
       </c>
       <c r="C190" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D190" s="3">
         <v>2.2898000000000002E-2</v>
@@ -6317,13 +6330,13 @@
       </c>
       <c r="F190" s="2">
         <f t="shared" si="5"/>
-        <v>1.1289180000000001</v>
+        <v>0.46225133333333335</v>
       </c>
       <c r="G190" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="H190" s="2">
-        <v>0.40329433333333331</v>
+        <v>0.23545366666666667</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6335,7 +6348,7 @@
       </c>
       <c r="C191" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D191" s="3">
         <v>0.10367800000000001</v>
@@ -6345,13 +6358,13 @@
       </c>
       <c r="F191" s="2">
         <f t="shared" si="5"/>
-        <v>1.199813</v>
+        <v>0.53314633333333328</v>
       </c>
       <c r="G191" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="H191" s="2">
-        <v>0.40066633333333335</v>
+        <v>0.23271366666666665</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6363,7 +6376,7 @@
       </c>
       <c r="C192" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D192" s="3">
         <v>9.6190999999999999E-2</v>
@@ -6373,13 +6386,13 @@
       </c>
       <c r="F192" s="2">
         <f t="shared" si="5"/>
-        <v>1.1859519999999999</v>
+        <v>0.51928533333333327</v>
       </c>
       <c r="G192" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="H192" s="2">
-        <v>0.3948713333333333</v>
+        <v>0.22950166666666666</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6391,7 +6404,7 @@
       </c>
       <c r="C193" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D193" s="3">
         <v>3.0974999999999999E-2</v>
@@ -6401,13 +6414,13 @@
       </c>
       <c r="F193" s="2">
         <f t="shared" si="5"/>
-        <v>1.1098809999999999</v>
+        <v>0.44321433333333327</v>
       </c>
       <c r="G193" t="s">
-        <v>6</v>
+        <v>182</v>
       </c>
       <c r="H193" s="2">
-        <v>0.39100233333333334</v>
+        <v>0.22742966666666664</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6419,7 +6432,7 @@
       </c>
       <c r="C194" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D194" s="3">
         <v>2.3674000000000001E-2</v>
@@ -6429,13 +6442,13 @@
       </c>
       <c r="F194" s="2">
         <f t="shared" si="5"/>
-        <v>1.098039</v>
+        <v>0.43137233333333336</v>
       </c>
       <c r="G194" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="H194" s="2">
-        <v>0.38294733333333331</v>
+        <v>0.22521366666666665</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6446,8 +6459,8 @@
         <v>2</v>
       </c>
       <c r="C195" s="3">
-        <f t="shared" ref="C195:C201" si="6" xml:space="preserve"> B195/MAX(B195:B394)</f>
-        <v>1</v>
+        <f t="shared" ref="C195:C201" si="6">B195/6</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D195" s="3">
         <v>1.005E-2</v>
@@ -6457,13 +6470,13 @@
       </c>
       <c r="F195" s="2">
         <f t="shared" si="5"/>
-        <v>1.0770759999999999</v>
+        <v>0.41040933333333329</v>
       </c>
       <c r="G195" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="H195" s="2">
-        <v>0.30743100000000001</v>
+        <v>0.22493866666666665</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6475,7 +6488,7 @@
       </c>
       <c r="C196" s="3">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D196" s="3">
         <v>0</v>
@@ -6485,13 +6498,13 @@
       </c>
       <c r="F196" s="2">
         <f t="shared" ref="F196:H201" si="7">(C196+D196+E196)</f>
-        <v>0.56283499999999997</v>
+        <v>0.22950166666666666</v>
       </c>
       <c r="G196" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="H196" s="2">
-        <v>0.26604700000000003</v>
+        <v>0.22476866666666667</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6503,7 +6516,7 @@
       </c>
       <c r="C197" s="3">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D197" s="3">
         <v>1.9998999999999999E-2</v>
@@ -6513,13 +6526,13 @@
       </c>
       <c r="F197" s="2">
         <f t="shared" si="7"/>
-        <v>1.0742370000000001</v>
+        <v>0.40757033333333331</v>
       </c>
       <c r="G197" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="H197" s="2">
-        <v>0.258272</v>
+        <v>0.22409766666666667</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6531,7 +6544,7 @@
       </c>
       <c r="C198" s="3">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D198" s="3">
         <v>0</v>
@@ -6541,13 +6554,13 @@
       </c>
       <c r="F198" s="2">
         <f t="shared" si="7"/>
-        <v>0.54897899999999999</v>
+        <v>0.21564566666666665</v>
       </c>
       <c r="G198" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="H198" s="2">
-        <v>0.23858566666666664</v>
+        <v>0.22086066666666665</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6559,7 +6572,7 @@
       </c>
       <c r="C199" s="3">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D199" s="3">
         <v>2.1883E-2</v>
@@ -6569,13 +6582,13 @@
       </c>
       <c r="F199" s="2">
         <f t="shared" si="7"/>
-        <v>1.0916590000000002</v>
+        <v>0.42499233333333331</v>
       </c>
       <c r="G199" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="H199" s="2">
-        <v>0.22476866666666667</v>
+        <v>0.21628066666666665</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6587,7 +6600,7 @@
       </c>
       <c r="C200" s="3">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D200" s="3">
         <v>3.8721999999999999E-2</v>
@@ -6597,13 +6610,13 @@
       </c>
       <c r="F200" s="2">
         <f t="shared" si="7"/>
-        <v>1.1432389999999999</v>
+        <v>0.47657233333333326</v>
       </c>
       <c r="G200" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="H200" s="2">
-        <v>0.22086066666666665</v>
+        <v>0.21564566666666665</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6615,7 +6628,7 @@
       </c>
       <c r="C201" s="3">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D201" s="3">
         <v>0.10485800000000001</v>
@@ -6625,13 +6638,22 @@
       </c>
       <c r="F201" s="2">
         <f t="shared" si="7"/>
-        <v>1.2109350000000001</v>
+        <v>0.54426833333333335</v>
       </c>
       <c r="G201" t="s">
         <v>5</v>
       </c>
       <c r="H201" s="2">
         <v>0.21213166666666666</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203" s="5">
+        <f>MAX(B2:B201)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
